--- a/ProjetS2 Planning GIT.xlsx
+++ b/ProjetS2 Planning GIT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvida\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJET S2\PROJET-S2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="135">
   <si>
     <t>Les choses à faire</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>Quantité de Travail (heures)</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,6 +1132,9 @@
       <c r="F13" s="3">
         <v>5</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
@@ -1140,6 +1146,9 @@
       <c r="F14" s="3">
         <v>20</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
@@ -1149,6 +1158,9 @@
         <v>25</v>
       </c>
       <c r="F15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1162,8 +1174,11 @@
       <c r="F16" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1173,8 +1188,11 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1182,8 +1200,11 @@
         <v>29</v>
       </c>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>31</v>
@@ -1197,8 +1218,11 @@
       <c r="F19" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1208,8 +1232,11 @@
       <c r="F20" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -1219,8 +1246,11 @@
       <c r="F21" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1228,8 +1258,11 @@
         <v>25</v>
       </c>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
@@ -1241,8 +1274,11 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -1252,8 +1288,11 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>39</v>
@@ -1267,8 +1306,11 @@
       <c r="F25" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1278,8 +1320,11 @@
       <c r="F26" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17" t="s">
@@ -1291,8 +1336,11 @@
       <c r="F27" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1302,8 +1350,11 @@
       <c r="F28" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>43</v>
@@ -1317,8 +1368,11 @@
       <c r="F29" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1328,8 +1382,11 @@
       <c r="F30" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
@@ -1341,8 +1398,11 @@
       <c r="F31" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -1351,6 +1411,9 @@
       </c>
       <c r="F32" s="3">
         <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2144,54 +2207,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="A79:A99"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B91:B99"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A55:A66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="A5:A42"/>
@@ -2208,6 +2223,54 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A55:A66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="A79:A99"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B91:B99"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C88:C90"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
